--- a/output_sound/fs_16000_threshold_0.10/results_1s.xlsx
+++ b/output_sound/fs_16000_threshold_0.10/results_1s.xlsx
@@ -512,7 +512,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.94</v>
+        <v>-10.39</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -521,37 +521,37 @@
         <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>28.08</v>
+        <v>26.64</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.05</v>
+        <v>21.68</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>18.95</v>
+        <v>5.54</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.81</v>
+        <v>1.57</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.61</v>
+        <v>0.98</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>876</v>
+        <v>42551</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
